--- a/Rendus/Planning.xlsx
+++ b/Rendus/Planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cours\TER_Art\Rendus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CD27DCC-4A16-45FB-8DB4-127F23A73A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2367DD8-3E9A-4774-8E47-175FE3938736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{333515FF-309C-4E44-8A4C-BE0A520770E0}"/>
   </bookViews>
@@ -35,22 +35,194 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>François Verdelhan</author>
+  </authors>
+  <commentList>
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{479055D9-969B-4380-8661-23D944896496}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>François Verdelhan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+01/10 : Question de recherche</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{7D16F124-D7B3-44F4-801E-DEFCD07D2C07}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>François Verdelhan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+15/10 : Planning</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J5" authorId="0" shapeId="0" xr:uid="{E52E05E8-7037-4AF0-BC51-316A941A298F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>François Verdelhan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+01/11 : Mise en forme et AED</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L5" authorId="0" shapeId="0" xr:uid="{0403FDDD-2844-4F90-B7BF-5953A9DD53F9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>François Verdelhan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+15/11 : Revue littérature</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N5" authorId="0" shapeId="0" xr:uid="{E5A6C526-7477-443F-9B9A-87561DFF4AE1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>François Verdelhan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+01/12 : Outils et programmes à utiliser</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P5" authorId="0" shapeId="0" xr:uid="{5759B1EA-E166-4F77-8BD3-982C926500DD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>François Verdelhan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+14/12 : Rendu slide pour présentation</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P13" authorId="0" shapeId="0" xr:uid="{9024F7E2-CFC6-47C7-962A-C13DAC041746}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>François Verdelhan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Rendu attendu :
+Présentation du contexte
+Ebauche du site
+Présentation de 2 modèles</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Semaine</t>
   </si>
   <si>
-    <t>Entrer en cour</t>
-  </si>
-  <si>
     <t>Rencontre avec l'interlocuteur</t>
-  </si>
-  <si>
-    <t>Plannification des taches</t>
-  </si>
-  <si>
-    <t>Nettoyage base de données</t>
   </si>
   <si>
     <t>Création du site</t>
@@ -59,29 +231,50 @@
     <t>Création des modèles</t>
   </si>
   <si>
-    <t>Selection du modèle</t>
-  </si>
-  <si>
     <t>Intégration des données au site</t>
   </si>
   <si>
     <t>Prise en main de la bibliographie</t>
   </si>
   <si>
-    <t>Présentation de mis semestre</t>
+    <t xml:space="preserve">Semaine de compte rendu </t>
   </si>
   <si>
-    <t>Présentation final</t>
+    <t>Entrée en cours</t>
   </si>
   <si>
-    <t xml:space="preserve">Semaine de compte rendu </t>
+    <t>Plannification des tâches</t>
+  </si>
+  <si>
+    <t>Sélection du modèle</t>
+  </si>
+  <si>
+    <t>Présentation de mi-semestre</t>
+  </si>
+  <si>
+    <t>Présentation finale</t>
+  </si>
+  <si>
+    <t>Ajout de module sur le site</t>
+  </si>
+  <si>
+    <t>Prévu</t>
+  </si>
+  <si>
+    <t>Retard</t>
+  </si>
+  <si>
+    <t>Nettoyage/Import base de données</t>
+  </si>
+  <si>
+    <t>Semaine de présentation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,8 +288,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -109,8 +315,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -149,13 +373,43 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -167,6 +421,21 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -182,7 +451,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -197,6 +466,21 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -331,6 +615,43 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -346,25 +667,54 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,6 +730,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -678,260 +1032,232 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D90E078-9C52-45F7-9223-E31D19317A62}">
-  <dimension ref="A2:AP15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D90E078-9C52-45F7-9223-E31D19317A62}">
+  <dimension ref="A1:AP17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J25" sqref="J25"/>
+      <selection pane="bottomRight" activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="43" width="4.44140625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="24"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="27"/>
+    </row>
+    <row r="3" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="26"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="28"/>
+    </row>
+    <row r="4" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="8">
+        <v>36</v>
+      </c>
+      <c r="C5" s="7">
+        <v>37</v>
+      </c>
+      <c r="D5" s="7">
+        <v>38</v>
+      </c>
+      <c r="E5" s="16">
+        <v>39</v>
+      </c>
+      <c r="F5" s="7">
+        <v>40</v>
+      </c>
+      <c r="G5" s="16">
+        <v>41</v>
+      </c>
+      <c r="H5" s="7">
+        <v>42</v>
+      </c>
+      <c r="I5" s="31">
+        <v>43</v>
+      </c>
+      <c r="J5" s="16">
+        <v>44</v>
+      </c>
+      <c r="K5" s="31">
+        <v>45</v>
+      </c>
+      <c r="L5" s="16">
+        <v>46</v>
+      </c>
+      <c r="M5" s="31">
+        <v>47</v>
+      </c>
+      <c r="N5" s="16">
+        <v>48</v>
+      </c>
+      <c r="O5" s="31">
+        <v>49</v>
+      </c>
+      <c r="P5" s="33">
+        <v>50</v>
+      </c>
+      <c r="Q5" s="31">
+        <v>51</v>
+      </c>
+      <c r="R5" s="31">
+        <v>52</v>
+      </c>
+      <c r="S5" s="31">
+        <v>1</v>
+      </c>
+      <c r="T5" s="31">
+        <v>2</v>
+      </c>
+      <c r="U5" s="31">
+        <v>3</v>
+      </c>
+      <c r="V5" s="31">
+        <v>4</v>
+      </c>
+      <c r="W5" s="31">
+        <v>5</v>
+      </c>
+      <c r="X5" s="31">
+        <v>6</v>
+      </c>
+      <c r="Y5" s="31">
+        <v>7</v>
+      </c>
+      <c r="Z5" s="31">
+        <v>8</v>
+      </c>
+      <c r="AA5" s="31">
+        <v>9</v>
+      </c>
+      <c r="AB5" s="31">
+        <v>10</v>
+      </c>
+      <c r="AC5" s="31">
+        <v>11</v>
+      </c>
+      <c r="AD5" s="31">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="10">
-        <v>36</v>
-      </c>
-      <c r="C4" s="8">
-        <v>37</v>
-      </c>
-      <c r="D4" s="8">
-        <v>38</v>
-      </c>
-      <c r="E4" s="8">
-        <v>39</v>
-      </c>
-      <c r="F4" s="8">
-        <v>40</v>
-      </c>
-      <c r="G4" s="8">
-        <v>41</v>
-      </c>
-      <c r="H4" s="8">
-        <v>42</v>
-      </c>
-      <c r="I4" s="8">
-        <v>43</v>
-      </c>
-      <c r="J4" s="8">
-        <v>44</v>
-      </c>
-      <c r="K4" s="8">
-        <v>45</v>
-      </c>
-      <c r="L4" s="8">
-        <v>46</v>
-      </c>
-      <c r="M4" s="8">
-        <v>47</v>
-      </c>
-      <c r="N4" s="8">
-        <v>48</v>
-      </c>
-      <c r="O4" s="8">
-        <v>49</v>
-      </c>
-      <c r="P4" s="8">
-        <v>50</v>
-      </c>
-      <c r="Q4" s="8">
-        <v>51</v>
-      </c>
-      <c r="R4" s="8">
-        <v>52</v>
-      </c>
-      <c r="S4" s="8">
-        <v>1</v>
-      </c>
-      <c r="T4" s="8">
-        <v>2</v>
-      </c>
-      <c r="U4" s="8">
-        <v>3</v>
-      </c>
-      <c r="V4" s="8">
-        <v>4</v>
-      </c>
-      <c r="W4" s="8">
-        <v>5</v>
-      </c>
-      <c r="X4" s="8">
-        <v>6</v>
-      </c>
-      <c r="Y4" s="8">
-        <v>7</v>
-      </c>
-      <c r="Z4" s="8">
-        <v>8</v>
-      </c>
-      <c r="AA4" s="8">
-        <v>9</v>
-      </c>
-      <c r="AB4" s="8">
-        <v>10</v>
-      </c>
-      <c r="AC4" s="8">
-        <v>11</v>
-      </c>
-      <c r="AD4" s="8">
-        <v>12</v>
-      </c>
-      <c r="AE4" s="8">
+      <c r="AE5" s="31">
         <v>13</v>
       </c>
-      <c r="AF4" s="8">
+      <c r="AF5" s="31">
         <v>14</v>
       </c>
-      <c r="AG4" s="8">
+      <c r="AG5" s="31">
         <v>15</v>
       </c>
-      <c r="AH4" s="8">
+      <c r="AH5" s="31">
         <v>16</v>
       </c>
-      <c r="AI4" s="8">
+      <c r="AI5" s="31">
         <v>17</v>
       </c>
-      <c r="AJ4" s="8">
+      <c r="AJ5" s="31">
         <v>18</v>
       </c>
-      <c r="AK4" s="8">
+      <c r="AK5" s="31">
         <v>19</v>
       </c>
-      <c r="AL4" s="8">
+      <c r="AL5" s="31">
         <v>20</v>
       </c>
-      <c r="AM4" s="8">
+      <c r="AM5" s="31">
         <v>21</v>
       </c>
-      <c r="AN4" s="8">
+      <c r="AN5" s="31">
         <v>22</v>
       </c>
-      <c r="AO4" s="8">
+      <c r="AO5" s="31">
         <v>23</v>
       </c>
-      <c r="AP4" s="9">
+      <c r="AP5" s="32">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="6"/>
-      <c r="AE5" s="6"/>
-      <c r="AF5" s="6"/>
-      <c r="AG5" s="6"/>
-      <c r="AH5" s="6"/>
-      <c r="AI5" s="6"/>
-      <c r="AJ5" s="6"/>
-      <c r="AK5" s="6"/>
-      <c r="AL5" s="6"/>
-      <c r="AM5" s="6"/>
-      <c r="AN5" s="6"/>
-      <c r="AO5" s="6"/>
-      <c r="AP5" s="7"/>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="2"/>
-      <c r="AI6" s="2"/>
-      <c r="AJ6" s="2"/>
-      <c r="AK6" s="2"/>
-      <c r="AL6" s="2"/>
-      <c r="AM6" s="2"/>
-      <c r="AN6" s="2"/>
-      <c r="AO6" s="2"/>
-      <c r="AP6" s="3"/>
+      <c r="A6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5"/>
+      <c r="AM6" s="5"/>
+      <c r="AN6" s="5"/>
+      <c r="AO6" s="5"/>
+      <c r="AP6" s="6"/>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="12"/>
+      <c r="A7" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="9"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -967,17 +1293,17 @@
       <c r="AP7" s="3"/>
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="12"/>
+      <c r="A8" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="9"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -1013,15 +1339,15 @@
       <c r="AP8" s="3"/>
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="12"/>
+      <c r="A9" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="G9" s="19"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1059,19 +1385,19 @@
       <c r="AP9" s="3"/>
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="12"/>
+      <c r="A10" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="9"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1105,36 +1431,36 @@
       <c r="AP10" s="3"/>
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="12"/>
+      <c r="A11" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="9"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
-      <c r="AB11" s="2"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="19"/>
+      <c r="Z11" s="19"/>
+      <c r="AA11" s="19"/>
+      <c r="AB11" s="19"/>
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
@@ -1151,10 +1477,10 @@
       <c r="AP11" s="3"/>
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="12"/>
+      <c r="A12" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="9"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1164,23 +1490,23 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
-      <c r="AB12" s="2"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="18"/>
+      <c r="X12" s="18"/>
+      <c r="Y12" s="18"/>
+      <c r="Z12" s="18"/>
+      <c r="AA12" s="18"/>
+      <c r="AB12" s="18"/>
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
@@ -1197,10 +1523,10 @@
       <c r="AP12" s="3"/>
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="12"/>
+      <c r="A13" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="9"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -1214,7 +1540,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
+      <c r="P13" s="19"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
@@ -1243,10 +1569,10 @@
       <c r="AP13" s="3"/>
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="12"/>
+      <c r="A14" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="9"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -1267,12 +1593,12 @@
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
-      <c r="AA14" s="2"/>
-      <c r="AB14" s="2"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="19"/>
+      <c r="Y14" s="19"/>
+      <c r="Z14" s="19"/>
+      <c r="AA14" s="19"/>
+      <c r="AB14" s="19"/>
       <c r="AC14" s="2"/>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
@@ -1288,54 +1614,151 @@
       <c r="AO14" s="2"/>
       <c r="AP14" s="3"/>
     </row>
-    <row r="15" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="17" t="s">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="19"/>
+      <c r="AD15" s="19"/>
+      <c r="AE15" s="19"/>
+      <c r="AF15" s="19"/>
+      <c r="AG15" s="19"/>
+      <c r="AH15" s="19"/>
+      <c r="AI15" s="19"/>
+      <c r="AJ15" s="19"/>
+      <c r="AK15" s="2"/>
+      <c r="AL15" s="2"/>
+      <c r="AM15" s="2"/>
+      <c r="AN15" s="2"/>
+      <c r="AO15" s="2"/>
+      <c r="AP15" s="3"/>
+    </row>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="2"/>
+      <c r="AH16" s="2"/>
+      <c r="AI16" s="2"/>
+      <c r="AJ16" s="2"/>
+      <c r="AK16" s="19"/>
+      <c r="AL16" s="19"/>
+      <c r="AM16" s="19"/>
+      <c r="AN16" s="19"/>
+      <c r="AO16" s="2"/>
+      <c r="AP16" s="3"/>
+    </row>
+    <row r="17" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="4"/>
-      <c r="AC15" s="4"/>
-      <c r="AD15" s="4"/>
-      <c r="AE15" s="4"/>
-      <c r="AF15" s="4"/>
-      <c r="AG15" s="4"/>
-      <c r="AH15" s="4"/>
-      <c r="AI15" s="4"/>
-      <c r="AJ15" s="4"/>
-      <c r="AK15" s="4"/>
-      <c r="AL15" s="4"/>
-      <c r="AM15" s="4"/>
-      <c r="AN15" s="4"/>
-      <c r="AO15" s="4"/>
-      <c r="AP15" s="5"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="4"/>
+      <c r="AH17" s="4"/>
+      <c r="AI17" s="4"/>
+      <c r="AJ17" s="4"/>
+      <c r="AK17" s="4"/>
+      <c r="AL17" s="4"/>
+      <c r="AM17" s="4"/>
+      <c r="AN17" s="4"/>
+      <c r="AO17" s="4"/>
+      <c r="AP17" s="22"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="H3:J3"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Rendus/Planning.xlsx
+++ b/Rendus/Planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cours\TER_Art\Rendus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2367DD8-3E9A-4774-8E47-175FE3938736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF4D23E-73EA-4B4C-9686-A7BE5C33400E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{333515FF-309C-4E44-8A4C-BE0A520770E0}"/>
   </bookViews>
@@ -217,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Semaine</t>
   </si>
@@ -261,9 +261,6 @@
     <t>Prévu</t>
   </si>
   <si>
-    <t>Retard</t>
-  </si>
-  <si>
     <t>Nettoyage/Import base de données</t>
   </si>
   <si>
@@ -302,7 +299,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -312,12 +309,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,7 +325,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -373,13 +364,136 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -388,16 +502,94 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -409,232 +601,10 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -642,22 +612,16 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -667,54 +631,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -730,10 +684,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1036,10 +986,10 @@
   <dimension ref="A1:AP17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N7" sqref="N7"/>
+      <selection pane="bottomRight" activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1048,28 +998,31 @@
     <col min="2" max="43" width="4.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+    </row>
+    <row r="2" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="24"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="27"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="28"/>
     </row>
     <row r="3" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="25" t="s">
+      <c r="A3" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="26"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="28"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="27"/>
     </row>
     <row r="4" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1097,106 +1050,106 @@
       <c r="H5" s="7">
         <v>42</v>
       </c>
-      <c r="I5" s="31">
+      <c r="I5" s="7">
         <v>43</v>
       </c>
       <c r="J5" s="16">
         <v>44</v>
       </c>
-      <c r="K5" s="31">
+      <c r="K5" s="7">
         <v>45</v>
       </c>
       <c r="L5" s="16">
         <v>46</v>
       </c>
-      <c r="M5" s="31">
+      <c r="M5" s="7">
         <v>47</v>
       </c>
       <c r="N5" s="16">
         <v>48</v>
       </c>
-      <c r="O5" s="31">
+      <c r="O5" s="7">
         <v>49</v>
       </c>
-      <c r="P5" s="33">
+      <c r="P5" s="22">
         <v>50</v>
       </c>
-      <c r="Q5" s="31">
+      <c r="Q5" s="7">
         <v>51</v>
       </c>
-      <c r="R5" s="31">
+      <c r="R5" s="7">
         <v>52</v>
       </c>
-      <c r="S5" s="31">
+      <c r="S5" s="7">
         <v>1</v>
       </c>
-      <c r="T5" s="31">
+      <c r="T5" s="7">
         <v>2</v>
       </c>
-      <c r="U5" s="31">
+      <c r="U5" s="7">
         <v>3</v>
       </c>
-      <c r="V5" s="31">
+      <c r="V5" s="7">
         <v>4</v>
       </c>
-      <c r="W5" s="31">
+      <c r="W5" s="7">
         <v>5</v>
       </c>
-      <c r="X5" s="31">
+      <c r="X5" s="7">
         <v>6</v>
       </c>
-      <c r="Y5" s="31">
+      <c r="Y5" s="7">
         <v>7</v>
       </c>
-      <c r="Z5" s="31">
+      <c r="Z5" s="7">
         <v>8</v>
       </c>
-      <c r="AA5" s="31">
+      <c r="AA5" s="7">
         <v>9</v>
       </c>
-      <c r="AB5" s="31">
+      <c r="AB5" s="7">
         <v>10</v>
       </c>
-      <c r="AC5" s="31">
+      <c r="AC5" s="7">
         <v>11</v>
       </c>
-      <c r="AD5" s="31">
+      <c r="AD5" s="7">
         <v>12</v>
       </c>
-      <c r="AE5" s="31">
+      <c r="AE5" s="7">
         <v>13</v>
       </c>
-      <c r="AF5" s="31">
+      <c r="AF5" s="7">
         <v>14</v>
       </c>
-      <c r="AG5" s="31">
+      <c r="AG5" s="7">
         <v>15</v>
       </c>
-      <c r="AH5" s="31">
+      <c r="AH5" s="7">
         <v>16</v>
       </c>
-      <c r="AI5" s="31">
+      <c r="AI5" s="7">
         <v>17</v>
       </c>
-      <c r="AJ5" s="31">
+      <c r="AJ5" s="7">
         <v>18</v>
       </c>
-      <c r="AK5" s="31">
+      <c r="AK5" s="7">
         <v>19</v>
       </c>
-      <c r="AL5" s="31">
+      <c r="AL5" s="7">
         <v>20</v>
       </c>
-      <c r="AM5" s="31">
+      <c r="AM5" s="7">
         <v>21</v>
       </c>
-      <c r="AN5" s="31">
+      <c r="AN5" s="7">
         <v>22</v>
       </c>
-      <c r="AO5" s="31">
+      <c r="AO5" s="7">
         <v>23</v>
       </c>
-      <c r="AP5" s="32">
+      <c r="AP5" s="21">
         <v>24</v>
       </c>
     </row>
@@ -1204,9 +1157,9 @@
       <c r="A6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -1252,12 +1205,12 @@
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -1298,10 +1251,10 @@
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
       <c r="J8" s="2"/>
@@ -1347,7 +1300,7 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="19"/>
+      <c r="G9" s="17"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1386,7 +1339,7 @@
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="2"/>
@@ -1394,10 +1347,10 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1440,27 +1393,27 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="19"/>
-      <c r="Z11" s="19"/>
-      <c r="AA11" s="19"/>
-      <c r="AB11" s="19"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17"/>
+      <c r="AA11" s="17"/>
+      <c r="AB11" s="17"/>
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
@@ -1490,23 +1443,23 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="18"/>
-      <c r="X12" s="18"/>
-      <c r="Y12" s="18"/>
-      <c r="Z12" s="18"/>
-      <c r="AA12" s="18"/>
-      <c r="AB12" s="18"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
@@ -1540,7 +1493,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
-      <c r="P13" s="19"/>
+      <c r="P13" s="17"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
@@ -1593,12 +1546,12 @@
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
-      <c r="W14" s="19"/>
-      <c r="X14" s="19"/>
-      <c r="Y14" s="19"/>
-      <c r="Z14" s="19"/>
-      <c r="AA14" s="19"/>
-      <c r="AB14" s="19"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="17"/>
+      <c r="AA14" s="17"/>
+      <c r="AB14" s="17"/>
       <c r="AC14" s="2"/>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
@@ -1645,14 +1598,14 @@
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
-      <c r="AC15" s="19"/>
-      <c r="AD15" s="19"/>
-      <c r="AE15" s="19"/>
-      <c r="AF15" s="19"/>
-      <c r="AG15" s="19"/>
-      <c r="AH15" s="19"/>
-      <c r="AI15" s="19"/>
-      <c r="AJ15" s="19"/>
+      <c r="AC15" s="17"/>
+      <c r="AD15" s="17"/>
+      <c r="AE15" s="17"/>
+      <c r="AF15" s="17"/>
+      <c r="AG15" s="17"/>
+      <c r="AH15" s="17"/>
+      <c r="AI15" s="17"/>
+      <c r="AJ15" s="17"/>
       <c r="AK15" s="2"/>
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
@@ -1699,10 +1652,10 @@
       <c r="AH16" s="2"/>
       <c r="AI16" s="2"/>
       <c r="AJ16" s="2"/>
-      <c r="AK16" s="19"/>
-      <c r="AL16" s="19"/>
-      <c r="AM16" s="19"/>
-      <c r="AN16" s="19"/>
+      <c r="AK16" s="17"/>
+      <c r="AL16" s="17"/>
+      <c r="AM16" s="17"/>
+      <c r="AN16" s="17"/>
       <c r="AO16" s="2"/>
       <c r="AP16" s="3"/>
     </row>
@@ -1750,11 +1703,10 @@
       <c r="AM17" s="4"/>
       <c r="AN17" s="4"/>
       <c r="AO17" s="4"/>
-      <c r="AP17" s="22"/>
+      <c r="AP17" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="H2:J2"/>
+  <mergeCells count="1">
     <mergeCell ref="H3:J3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Rendus/Planning.xlsx
+++ b/Rendus/Planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cours\TER_Art\Rendus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF4D23E-73EA-4B4C-9686-A7BE5C33400E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E040BFFC-B6E3-4714-8C61-B8BDB167ACE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{333515FF-309C-4E44-8A4C-BE0A520770E0}"/>
   </bookViews>
@@ -185,7 +185,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P13" authorId="0" shapeId="0" xr:uid="{9024F7E2-CFC6-47C7-962A-C13DAC041746}">
+    <comment ref="P15" authorId="0" shapeId="0" xr:uid="{9024F7E2-CFC6-47C7-962A-C13DAC041746}">
       <text>
         <r>
           <rPr>
@@ -217,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Semaine</t>
   </si>
@@ -265,6 +265,12 @@
   </si>
   <si>
     <t>Semaine de présentation</t>
+  </si>
+  <si>
+    <t>Création du git</t>
+  </si>
+  <si>
+    <t>Etat de l'art</t>
   </si>
 </sst>
 </file>
@@ -631,7 +637,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -669,6 +675,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -983,13 +990,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D90E078-9C52-45F7-9223-E31D19317A62}">
-  <dimension ref="A1:AP17"/>
+  <dimension ref="A1:AP19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="P3" sqref="P3"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1200,63 +1207,63 @@
       <c r="AP6" s="6"/>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
-      <c r="AB7" s="2"/>
-      <c r="AC7" s="2"/>
-      <c r="AD7" s="2"/>
-      <c r="AE7" s="2"/>
-      <c r="AF7" s="2"/>
-      <c r="AG7" s="2"/>
-      <c r="AH7" s="2"/>
-      <c r="AI7" s="2"/>
-      <c r="AJ7" s="2"/>
-      <c r="AK7" s="2"/>
-      <c r="AL7" s="2"/>
-      <c r="AM7" s="2"/>
-      <c r="AN7" s="2"/>
-      <c r="AO7" s="2"/>
-      <c r="AP7" s="3"/>
+      <c r="A7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
+      <c r="AM7" s="5"/>
+      <c r="AN7" s="5"/>
+      <c r="AO7" s="5"/>
+      <c r="AP7" s="6"/>
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="2"/>
       <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -1293,16 +1300,16 @@
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
       <c r="G9" s="17"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -1339,18 +1346,18 @@
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
       <c r="H10" s="17"/>
       <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1385,35 +1392,35 @@
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="17"/>
-      <c r="X11" s="17"/>
-      <c r="Y11" s="17"/>
-      <c r="Z11" s="17"/>
-      <c r="AA11" s="17"/>
-      <c r="AB11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
@@ -1431,7 +1438,7 @@
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="2"/>
@@ -1439,21 +1446,21 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
@@ -1477,7 +1484,7 @@
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="2"/>
@@ -1485,27 +1492,27 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
       <c r="P13" s="17"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
-      <c r="AA13" s="2"/>
-      <c r="AB13" s="2"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17"/>
+      <c r="AA13" s="17"/>
+      <c r="AB13" s="17"/>
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
@@ -1523,7 +1530,7 @@
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="2"/>
@@ -1535,23 +1542,23 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="17"/>
-      <c r="X14" s="17"/>
-      <c r="Y14" s="17"/>
-      <c r="Z14" s="17"/>
-      <c r="AA14" s="17"/>
-      <c r="AB14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
@@ -1569,7 +1576,7 @@
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="2"/>
@@ -1585,7 +1592,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
+      <c r="P15" s="17"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
@@ -1598,14 +1605,14 @@
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
-      <c r="AC15" s="17"/>
-      <c r="AD15" s="17"/>
-      <c r="AE15" s="17"/>
-      <c r="AF15" s="17"/>
-      <c r="AG15" s="17"/>
-      <c r="AH15" s="17"/>
-      <c r="AI15" s="17"/>
-      <c r="AJ15" s="17"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="2"/>
+      <c r="AH15" s="2"/>
+      <c r="AI15" s="2"/>
+      <c r="AJ15" s="2"/>
       <c r="AK15" s="2"/>
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
@@ -1614,8 +1621,8 @@
       <c r="AP15" s="3"/>
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A16" s="15" t="s">
-        <v>12</v>
+      <c r="A16" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="2"/>
@@ -1638,12 +1645,12 @@
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
-      <c r="AA16" s="2"/>
-      <c r="AB16" s="2"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="17"/>
+      <c r="AA16" s="17"/>
+      <c r="AB16" s="17"/>
       <c r="AC16" s="2"/>
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
@@ -1652,58 +1659,150 @@
       <c r="AH16" s="2"/>
       <c r="AI16" s="2"/>
       <c r="AJ16" s="2"/>
-      <c r="AK16" s="17"/>
-      <c r="AL16" s="17"/>
-      <c r="AM16" s="17"/>
-      <c r="AN16" s="17"/>
+      <c r="AK16" s="2"/>
+      <c r="AL16" s="2"/>
+      <c r="AM16" s="2"/>
+      <c r="AN16" s="2"/>
       <c r="AO16" s="2"/>
       <c r="AP16" s="3"/>
     </row>
-    <row r="17" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="14" t="s">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="17"/>
+      <c r="AD17" s="17"/>
+      <c r="AE17" s="17"/>
+      <c r="AF17" s="17"/>
+      <c r="AG17" s="17"/>
+      <c r="AH17" s="17"/>
+      <c r="AI17" s="17"/>
+      <c r="AJ17" s="17"/>
+      <c r="AK17" s="2"/>
+      <c r="AL17" s="2"/>
+      <c r="AM17" s="2"/>
+      <c r="AN17" s="2"/>
+      <c r="AO17" s="2"/>
+      <c r="AP17" s="3"/>
+    </row>
+    <row r="18" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A18" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="2"/>
+      <c r="AH18" s="2"/>
+      <c r="AI18" s="2"/>
+      <c r="AJ18" s="2"/>
+      <c r="AK18" s="17"/>
+      <c r="AL18" s="17"/>
+      <c r="AM18" s="17"/>
+      <c r="AN18" s="17"/>
+      <c r="AO18" s="2"/>
+      <c r="AP18" s="3"/>
+    </row>
+    <row r="19" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
-      <c r="AB17" s="4"/>
-      <c r="AC17" s="4"/>
-      <c r="AD17" s="4"/>
-      <c r="AE17" s="4"/>
-      <c r="AF17" s="4"/>
-      <c r="AG17" s="4"/>
-      <c r="AH17" s="4"/>
-      <c r="AI17" s="4"/>
-      <c r="AJ17" s="4"/>
-      <c r="AK17" s="4"/>
-      <c r="AL17" s="4"/>
-      <c r="AM17" s="4"/>
-      <c r="AN17" s="4"/>
-      <c r="AO17" s="4"/>
-      <c r="AP17" s="20"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="4"/>
+      <c r="AD19" s="4"/>
+      <c r="AE19" s="4"/>
+      <c r="AF19" s="4"/>
+      <c r="AG19" s="4"/>
+      <c r="AH19" s="4"/>
+      <c r="AI19" s="4"/>
+      <c r="AJ19" s="4"/>
+      <c r="AK19" s="4"/>
+      <c r="AL19" s="4"/>
+      <c r="AM19" s="4"/>
+      <c r="AN19" s="4"/>
+      <c r="AO19" s="4"/>
+      <c r="AP19" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Rendus/Planning.xlsx
+++ b/Rendus/Planning.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cours\TER_Art\Rendus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f1a6306215e798e7/Bureau/MIASHS/M1/S1/TER_Art/TER_Art/TER_Art/Rendus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13EBF60-4934-48E8-B80D-FD2645E1B4F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="230" documentId="13_ncr:1_{B13EBF60-4934-48E8-B80D-FD2645E1B4F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC9F06B8-8453-42B3-BFA6-E02B81C0D284}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{333515FF-309C-4E44-8A4C-BE0A520770E0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{333515FF-309C-4E44-8A4C-BE0A520770E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="1" r:id="rId1"/>
@@ -185,7 +185,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O29" authorId="0" shapeId="0" xr:uid="{9024F7E2-CFC6-47C7-962A-C13DAC041746}">
+    <comment ref="O28" authorId="0" shapeId="0" xr:uid="{9024F7E2-CFC6-47C7-962A-C13DAC041746}">
       <text>
         <r>
           <rPr>
@@ -217,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>Semaine</t>
   </si>
@@ -240,18 +240,12 @@
     <t xml:space="preserve">Semaine de compte rendu </t>
   </si>
   <si>
-    <t>Sélection du modèle</t>
-  </si>
-  <si>
     <t>Présentation de mi-semestre</t>
   </si>
   <si>
     <t>Présentation finale</t>
   </si>
   <si>
-    <t>Ajout de module sur le site</t>
-  </si>
-  <si>
     <t>Prévu</t>
   </si>
   <si>
@@ -267,21 +261,6 @@
     <t>Planification des tâches</t>
   </si>
   <si>
-    <t>Ajout François</t>
-  </si>
-  <si>
-    <t>Ajout Julien</t>
-  </si>
-  <si>
-    <t>Ajout Brice</t>
-  </si>
-  <si>
-    <t>Création du git (Matthieu)</t>
-  </si>
-  <si>
-    <t>Ajout d'Enzo</t>
-  </si>
-  <si>
     <t xml:space="preserve">Importation de la base </t>
   </si>
   <si>
@@ -291,9 +270,6 @@
     <t>Gestion des bases de données</t>
   </si>
   <si>
-    <t>Préparation de la maquette</t>
-  </si>
-  <si>
     <t>Création HTML</t>
   </si>
   <si>
@@ -303,10 +279,49 @@
     <t>Discussion sur les outils</t>
   </si>
   <si>
-    <t>???</t>
-  </si>
-  <si>
-    <t>Techiniqe de réduction de dimention</t>
+    <t>Gestion des tâches</t>
+  </si>
+  <si>
+    <t>Partage des tâches</t>
+  </si>
+  <si>
+    <t>Création de bases de données de tests</t>
+  </si>
+  <si>
+    <t>Préparation de la maquette (papier)</t>
+  </si>
+  <si>
+    <t>Choix apprentissage/tests</t>
+  </si>
+  <si>
+    <t>Technique de réduction de dimension</t>
+  </si>
+  <si>
+    <t>Mise en place des méthodes de tests</t>
+  </si>
+  <si>
+    <t>Choisir les modèles de machine learning</t>
+  </si>
+  <si>
+    <t>Entraîner et comparer les modèles</t>
+  </si>
+  <si>
+    <t>Création de l'interface du site</t>
+  </si>
+  <si>
+    <t>Ajout des fonctionnalités du site</t>
+  </si>
+  <si>
+    <t>Exporter les données des graphes</t>
+  </si>
+  <si>
+    <t>Création de graphes intéractifs</t>
+  </si>
+  <si>
+    <t>Import des données utilisateurs</t>
+  </si>
+  <si>
+    <t>Ajout de nouvelles thématiques</t>
   </si>
 </sst>
 </file>
@@ -348,7 +363,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -403,8 +418,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="37">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -595,24 +616,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -675,17 +678,6 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -739,17 +731,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -856,11 +837,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -876,6 +883,84 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -885,104 +970,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1298,23 +1308,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D90E078-9C52-45F7-9223-E31D19317A62}">
-  <dimension ref="A2:AO33"/>
+  <dimension ref="A1:AO40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L32" sqref="L32"/>
+      <selection pane="bottomRight" activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.21875" customWidth="1"/>
     <col min="3" max="42" width="4.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1323,422 +1334,424 @@
       <c r="I2" s="14"/>
       <c r="J2" s="14"/>
     </row>
-    <row r="3" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="58"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="13"/>
+    </row>
+    <row r="4" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:41" s="34" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="61"/>
+      <c r="C5" s="29">
+        <v>38</v>
+      </c>
+      <c r="D5" s="30">
+        <v>39</v>
+      </c>
+      <c r="E5" s="31">
+        <v>40</v>
+      </c>
+      <c r="F5" s="30">
+        <v>41</v>
+      </c>
+      <c r="G5" s="31">
+        <v>42</v>
+      </c>
+      <c r="H5" s="31">
+        <v>43</v>
+      </c>
+      <c r="I5" s="30">
+        <v>44</v>
+      </c>
+      <c r="J5" s="31">
+        <v>45</v>
+      </c>
+      <c r="K5" s="30">
+        <v>46</v>
+      </c>
+      <c r="L5" s="31">
+        <v>47</v>
+      </c>
+      <c r="M5" s="30">
+        <v>48</v>
+      </c>
+      <c r="N5" s="31">
+        <v>49</v>
+      </c>
+      <c r="O5" s="32">
+        <v>50</v>
+      </c>
+      <c r="P5" s="31">
+        <v>51</v>
+      </c>
+      <c r="Q5" s="31">
+        <v>52</v>
+      </c>
+      <c r="R5" s="31">
+        <v>1</v>
+      </c>
+      <c r="S5" s="31">
+        <v>2</v>
+      </c>
+      <c r="T5" s="31">
+        <v>3</v>
+      </c>
+      <c r="U5" s="31">
+        <v>4</v>
+      </c>
+      <c r="V5" s="31">
+        <v>5</v>
+      </c>
+      <c r="W5" s="31">
+        <v>6</v>
+      </c>
+      <c r="X5" s="31">
+        <v>7</v>
+      </c>
+      <c r="Y5" s="31">
+        <v>8</v>
+      </c>
+      <c r="Z5" s="31">
+        <v>9</v>
+      </c>
+      <c r="AA5" s="31">
+        <v>10</v>
+      </c>
+      <c r="AB5" s="31">
+        <v>11</v>
+      </c>
+      <c r="AC5" s="31">
         <v>12</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="AD5" s="31">
+        <v>13</v>
+      </c>
+      <c r="AE5" s="31">
+        <v>14</v>
+      </c>
+      <c r="AF5" s="31">
+        <v>15</v>
+      </c>
+      <c r="AG5" s="31">
+        <v>16</v>
+      </c>
+      <c r="AH5" s="31">
+        <v>17</v>
+      </c>
+      <c r="AI5" s="31">
+        <v>18</v>
+      </c>
+      <c r="AJ5" s="31">
+        <v>19</v>
+      </c>
+      <c r="AK5" s="31">
+        <v>20</v>
+      </c>
+      <c r="AL5" s="31">
+        <v>21</v>
+      </c>
+      <c r="AM5" s="31">
+        <v>22</v>
+      </c>
+      <c r="AN5" s="31">
+        <v>23</v>
+      </c>
+      <c r="AO5" s="33">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="13"/>
-    </row>
-    <row r="4" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:41" s="49" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="44">
-        <v>38</v>
-      </c>
-      <c r="D5" s="45">
-        <v>39</v>
-      </c>
-      <c r="E5" s="46">
-        <v>40</v>
-      </c>
-      <c r="F5" s="45">
-        <v>41</v>
-      </c>
-      <c r="G5" s="46">
-        <v>42</v>
-      </c>
-      <c r="H5" s="46">
-        <v>43</v>
-      </c>
-      <c r="I5" s="45">
-        <v>44</v>
-      </c>
-      <c r="J5" s="46">
-        <v>45</v>
-      </c>
-      <c r="K5" s="45">
-        <v>46</v>
-      </c>
-      <c r="L5" s="46">
-        <v>47</v>
-      </c>
-      <c r="M5" s="45">
-        <v>48</v>
-      </c>
-      <c r="N5" s="46">
-        <v>49</v>
-      </c>
-      <c r="O5" s="47">
-        <v>50</v>
-      </c>
-      <c r="P5" s="46">
-        <v>51</v>
-      </c>
-      <c r="Q5" s="46">
-        <v>52</v>
-      </c>
-      <c r="R5" s="46">
+      <c r="B6" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="23"/>
+      <c r="X6" s="23"/>
+      <c r="Y6" s="23"/>
+      <c r="Z6" s="23"/>
+      <c r="AA6" s="23"/>
+      <c r="AB6" s="23"/>
+      <c r="AC6" s="23"/>
+      <c r="AD6" s="23"/>
+      <c r="AE6" s="23"/>
+      <c r="AF6" s="23"/>
+      <c r="AG6" s="23"/>
+      <c r="AH6" s="23"/>
+      <c r="AI6" s="23"/>
+      <c r="AJ6" s="23"/>
+      <c r="AK6" s="23"/>
+      <c r="AL6" s="23"/>
+      <c r="AM6" s="23"/>
+      <c r="AN6" s="23"/>
+      <c r="AO6" s="24"/>
+    </row>
+    <row r="7" spans="1:41" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="S5" s="46">
-        <v>2</v>
-      </c>
-      <c r="T5" s="46">
-        <v>3</v>
-      </c>
-      <c r="U5" s="46">
-        <v>4</v>
-      </c>
-      <c r="V5" s="46">
+      <c r="B7" s="45"/>
+      <c r="C7" s="17"/>
+    </row>
+    <row r="8" spans="1:41" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="W5" s="46">
-        <v>6</v>
-      </c>
-      <c r="X5" s="46">
-        <v>7</v>
-      </c>
-      <c r="Y5" s="46">
-        <v>8</v>
-      </c>
-      <c r="Z5" s="46">
-        <v>9</v>
-      </c>
-      <c r="AA5" s="46">
-        <v>10</v>
-      </c>
-      <c r="AB5" s="46">
-        <v>11</v>
-      </c>
-      <c r="AC5" s="46">
+      <c r="B8" s="45"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:41" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="AD5" s="46">
+      <c r="B9" s="45"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:41" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="AE5" s="46">
+      <c r="B10" s="45"/>
+      <c r="C10" s="7"/>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:41" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="27"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="5"/>
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="5"/>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="5"/>
+      <c r="AM11" s="5"/>
+      <c r="AN11" s="5"/>
+      <c r="AO11" s="35"/>
+    </row>
+    <row r="12" spans="1:41" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="49"/>
+      <c r="B12" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="27"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="5"/>
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="5"/>
+      <c r="AM12" s="5"/>
+      <c r="AN12" s="5"/>
+      <c r="AO12" s="6"/>
+    </row>
+    <row r="13" spans="1:41" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="50"/>
+      <c r="B13" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="27"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="5"/>
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="5"/>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="5"/>
+      <c r="AM13" s="5"/>
+      <c r="AN13" s="5"/>
+      <c r="AO13" s="6"/>
+    </row>
+    <row r="14" spans="1:41" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="27"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="5"/>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="5"/>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="5"/>
+      <c r="AM14" s="5"/>
+      <c r="AN14" s="5"/>
+      <c r="AO14" s="35"/>
+    </row>
+    <row r="15" spans="1:41" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="49"/>
+      <c r="B15" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="AF5" s="46">
-        <v>15</v>
-      </c>
-      <c r="AG5" s="46">
-        <v>16</v>
-      </c>
-      <c r="AH5" s="46">
-        <v>17</v>
-      </c>
-      <c r="AI5" s="46">
-        <v>18</v>
-      </c>
-      <c r="AJ5" s="46">
-        <v>19</v>
-      </c>
-      <c r="AK5" s="46">
-        <v>20</v>
-      </c>
-      <c r="AL5" s="46">
-        <v>21</v>
-      </c>
-      <c r="AM5" s="46">
-        <v>22</v>
-      </c>
-      <c r="AN5" s="46">
-        <v>23</v>
-      </c>
-      <c r="AO5" s="48">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:41" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="33"/>
-      <c r="U6" s="33"/>
-      <c r="V6" s="33"/>
-      <c r="W6" s="33"/>
-      <c r="X6" s="33"/>
-      <c r="Y6" s="33"/>
-      <c r="Z6" s="33"/>
-      <c r="AA6" s="33"/>
-      <c r="AB6" s="33"/>
-      <c r="AC6" s="33"/>
-      <c r="AD6" s="33"/>
-      <c r="AE6" s="33"/>
-      <c r="AF6" s="33"/>
-      <c r="AG6" s="33"/>
-      <c r="AH6" s="33"/>
-      <c r="AI6" s="33"/>
-      <c r="AJ6" s="33"/>
-      <c r="AK6" s="33"/>
-      <c r="AL6" s="33"/>
-      <c r="AM6" s="33"/>
-      <c r="AN6" s="33"/>
-      <c r="AO6" s="34"/>
-    </row>
-    <row r="7" spans="1:41" s="36" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="69"/>
-      <c r="B7" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
-      <c r="AC7" s="5"/>
-      <c r="AD7" s="5"/>
-      <c r="AE7" s="5"/>
-      <c r="AF7" s="5"/>
-      <c r="AG7" s="5"/>
-      <c r="AH7" s="5"/>
-      <c r="AI7" s="5"/>
-      <c r="AJ7" s="5"/>
-      <c r="AK7" s="5"/>
-      <c r="AL7" s="5"/>
-      <c r="AM7" s="5"/>
-      <c r="AN7" s="5"/>
-      <c r="AO7" s="6"/>
-    </row>
-    <row r="8" spans="1:41" s="36" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="69"/>
-      <c r="B8" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="5"/>
-      <c r="AD8" s="5"/>
-      <c r="AE8" s="5"/>
-      <c r="AF8" s="5"/>
-      <c r="AG8" s="5"/>
-      <c r="AH8" s="5"/>
-      <c r="AI8" s="5"/>
-      <c r="AJ8" s="5"/>
-      <c r="AK8" s="5"/>
-      <c r="AL8" s="5"/>
-      <c r="AM8" s="5"/>
-      <c r="AN8" s="5"/>
-      <c r="AO8" s="6"/>
-    </row>
-    <row r="9" spans="1:41" s="36" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="69"/>
-      <c r="B9" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="5"/>
-      <c r="AC9" s="5"/>
-      <c r="AD9" s="5"/>
-      <c r="AE9" s="5"/>
-      <c r="AF9" s="5"/>
-      <c r="AG9" s="5"/>
-      <c r="AH9" s="5"/>
-      <c r="AI9" s="5"/>
-      <c r="AJ9" s="5"/>
-      <c r="AK9" s="5"/>
-      <c r="AL9" s="5"/>
-      <c r="AM9" s="5"/>
-      <c r="AN9" s="5"/>
-      <c r="AO9" s="6"/>
-    </row>
-    <row r="10" spans="1:41" s="36" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="70"/>
-      <c r="B10" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="26"/>
-      <c r="W10" s="26"/>
-      <c r="X10" s="26"/>
-      <c r="Y10" s="26"/>
-      <c r="Z10" s="26"/>
-      <c r="AA10" s="26"/>
-      <c r="AB10" s="26"/>
-      <c r="AC10" s="26"/>
-      <c r="AD10" s="26"/>
-      <c r="AE10" s="26"/>
-      <c r="AF10" s="26"/>
-      <c r="AG10" s="26"/>
-      <c r="AH10" s="26"/>
-      <c r="AI10" s="26"/>
-      <c r="AJ10" s="26"/>
-      <c r="AK10" s="26"/>
-      <c r="AL10" s="26"/>
-      <c r="AM10" s="26"/>
-      <c r="AN10" s="26"/>
-      <c r="AO10" s="27"/>
-    </row>
-    <row r="11" spans="1:41" s="2" customFormat="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="20"/>
-    </row>
-    <row r="12" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="7"/>
-      <c r="F14" s="9"/>
-    </row>
-    <row r="15" spans="1:41" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="37"/>
+      <c r="C15" s="27"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
@@ -1769,21 +1782,21 @@
       <c r="AL15" s="5"/>
       <c r="AM15" s="5"/>
       <c r="AN15" s="5"/>
-      <c r="AO15" s="50"/>
-    </row>
-    <row r="16" spans="1:41" ht="14.4" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="53"/>
-      <c r="B16" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="37"/>
+      <c r="AO15" s="6"/>
+    </row>
+    <row r="16" spans="1:41" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="49"/>
+      <c r="B16" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="27"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
@@ -1816,19 +1829,19 @@
       <c r="AN16" s="5"/>
       <c r="AO16" s="6"/>
     </row>
-    <row r="17" spans="1:41" ht="14.4" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="55"/>
-      <c r="B17" s="52" t="s">
+    <row r="17" spans="1:41" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="50"/>
+      <c r="B17" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="37"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="62"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
@@ -1861,11 +1874,11 @@
       <c r="AN17" s="5"/>
       <c r="AO17" s="6"/>
     </row>
-    <row r="18" spans="1:41" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="56" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="57" t="s">
+    <row r="18" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="38" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="7"/>
@@ -1893,14 +1906,14 @@
       <c r="Y18" s="9"/>
       <c r="Z18" s="9"/>
       <c r="AA18" s="9"/>
-      <c r="AB18" s="2"/>
-      <c r="AC18" s="2"/>
-      <c r="AD18" s="2"/>
-      <c r="AE18" s="2"/>
-      <c r="AF18" s="2"/>
-      <c r="AG18" s="2"/>
-      <c r="AH18" s="2"/>
-      <c r="AI18" s="2"/>
+      <c r="AB18" s="9"/>
+      <c r="AC18" s="9"/>
+      <c r="AD18" s="9"/>
+      <c r="AE18" s="9"/>
+      <c r="AF18" s="9"/>
+      <c r="AG18" s="9"/>
+      <c r="AH18" s="9"/>
+      <c r="AI18" s="9"/>
       <c r="AJ18" s="2"/>
       <c r="AK18" s="2"/>
       <c r="AL18" s="2"/>
@@ -1908,36 +1921,36 @@
       <c r="AN18" s="2"/>
       <c r="AO18" s="3"/>
     </row>
-    <row r="19" spans="1:41" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="58"/>
-      <c r="B19" s="59" t="s">
-        <v>27</v>
+    <row r="19" spans="1:41" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="52"/>
+      <c r="B19" s="39" t="s">
+        <v>19</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="19"/>
-      <c r="U19" s="19"/>
-      <c r="V19" s="19"/>
-      <c r="W19" s="19"/>
-      <c r="X19" s="19"/>
-      <c r="Y19" s="19"/>
-      <c r="Z19" s="19"/>
-      <c r="AA19" s="19"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="16"/>
+      <c r="X19" s="16"/>
+      <c r="Y19" s="16"/>
+      <c r="Z19" s="16"/>
+      <c r="AA19" s="16"/>
       <c r="AB19" s="2"/>
       <c r="AC19" s="2"/>
       <c r="AD19" s="2"/>
@@ -1953,36 +1966,36 @@
       <c r="AN19" s="2"/>
       <c r="AO19" s="3"/>
     </row>
-    <row r="20" spans="1:41" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="58"/>
-      <c r="B20" s="59" t="s">
-        <v>24</v>
+    <row r="20" spans="1:41" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="52"/>
+      <c r="B20" s="39" t="s">
+        <v>23</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="19"/>
-      <c r="T20" s="19"/>
-      <c r="U20" s="19"/>
-      <c r="V20" s="19"/>
-      <c r="W20" s="19"/>
-      <c r="X20" s="19"/>
-      <c r="Y20" s="19"/>
-      <c r="Z20" s="19"/>
-      <c r="AA20" s="19"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="16"/>
+      <c r="W20" s="16"/>
+      <c r="X20" s="16"/>
+      <c r="Y20" s="16"/>
+      <c r="Z20" s="16"/>
+      <c r="AA20" s="16"/>
       <c r="AB20" s="2"/>
       <c r="AC20" s="2"/>
       <c r="AD20" s="2"/>
@@ -1998,44 +2011,44 @@
       <c r="AN20" s="2"/>
       <c r="AO20" s="3"/>
     </row>
-    <row r="21" spans="1:41" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="58"/>
-      <c r="B21" s="59" t="s">
-        <v>25</v>
+    <row r="21" spans="1:41" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="52"/>
+      <c r="B21" s="39" t="s">
+        <v>17</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="61"/>
-      <c r="L21" s="61"/>
-      <c r="M21" s="61"/>
-      <c r="N21" s="61"/>
-      <c r="O21" s="61"/>
-      <c r="P21" s="61"/>
-      <c r="Q21" s="61"/>
-      <c r="R21" s="61"/>
-      <c r="S21" s="61"/>
-      <c r="T21" s="61"/>
-      <c r="U21" s="61"/>
-      <c r="V21" s="61"/>
-      <c r="W21" s="61"/>
-      <c r="X21" s="61"/>
-      <c r="Y21" s="61"/>
-      <c r="Z21" s="61"/>
-      <c r="AA21" s="61"/>
-      <c r="AB21" s="2"/>
-      <c r="AC21" s="2"/>
-      <c r="AD21" s="2"/>
-      <c r="AE21" s="2"/>
-      <c r="AF21" s="2"/>
-      <c r="AG21" s="2"/>
-      <c r="AH21" s="2"/>
-      <c r="AI21" s="2"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="40"/>
+      <c r="T21" s="40"/>
+      <c r="U21" s="40"/>
+      <c r="V21" s="40"/>
+      <c r="W21" s="40"/>
+      <c r="X21" s="40"/>
+      <c r="Y21" s="40"/>
+      <c r="Z21" s="40"/>
+      <c r="AA21" s="40"/>
+      <c r="AB21" s="40"/>
+      <c r="AC21" s="40"/>
+      <c r="AD21" s="40"/>
+      <c r="AE21" s="40"/>
+      <c r="AF21" s="40"/>
+      <c r="AG21" s="40"/>
+      <c r="AH21" s="40"/>
+      <c r="AI21" s="40"/>
       <c r="AJ21" s="2"/>
       <c r="AK21" s="2"/>
       <c r="AL21" s="2"/>
@@ -2043,44 +2056,44 @@
       <c r="AN21" s="2"/>
       <c r="AO21" s="3"/>
     </row>
-    <row r="22" spans="1:41" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="60"/>
-      <c r="B22" s="59" t="s">
-        <v>26</v>
+    <row r="22" spans="1:41" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="53"/>
+      <c r="B22" s="39" t="s">
+        <v>18</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="61"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="61"/>
-      <c r="L22" s="61"/>
-      <c r="M22" s="61"/>
-      <c r="N22" s="61"/>
-      <c r="O22" s="61"/>
-      <c r="P22" s="61"/>
-      <c r="Q22" s="61"/>
-      <c r="R22" s="61"/>
-      <c r="S22" s="61"/>
-      <c r="T22" s="61"/>
-      <c r="U22" s="61"/>
-      <c r="V22" s="61"/>
-      <c r="W22" s="61"/>
-      <c r="X22" s="61"/>
-      <c r="Y22" s="61"/>
-      <c r="Z22" s="61"/>
-      <c r="AA22" s="61"/>
-      <c r="AB22" s="2"/>
-      <c r="AC22" s="2"/>
-      <c r="AD22" s="2"/>
-      <c r="AE22" s="2"/>
-      <c r="AF22" s="2"/>
-      <c r="AG22" s="2"/>
-      <c r="AH22" s="2"/>
-      <c r="AI22" s="2"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="40"/>
+      <c r="U22" s="40"/>
+      <c r="V22" s="40"/>
+      <c r="W22" s="40"/>
+      <c r="X22" s="40"/>
+      <c r="Y22" s="40"/>
+      <c r="Z22" s="40"/>
+      <c r="AA22" s="40"/>
+      <c r="AB22" s="40"/>
+      <c r="AC22" s="40"/>
+      <c r="AD22" s="40"/>
+      <c r="AE22" s="40"/>
+      <c r="AF22" s="40"/>
+      <c r="AG22" s="40"/>
+      <c r="AH22" s="40"/>
+      <c r="AI22" s="40"/>
       <c r="AJ22" s="2"/>
       <c r="AK22" s="2"/>
       <c r="AL22" s="2"/>
@@ -2088,21 +2101,21 @@
       <c r="AN22" s="2"/>
       <c r="AO22" s="3"/>
     </row>
-    <row r="23" spans="1:41" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="63" t="s">
+    <row r="23" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="64" t="s">
+      <c r="B23" s="41" t="s">
         <v>3</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
@@ -2114,20 +2127,20 @@
       <c r="S23" s="9"/>
       <c r="T23" s="9"/>
       <c r="U23" s="9"/>
-      <c r="V23" s="2"/>
-      <c r="W23" s="2"/>
-      <c r="X23" s="2"/>
-      <c r="Y23" s="2"/>
-      <c r="Z23" s="2"/>
-      <c r="AA23" s="2"/>
-      <c r="AB23" s="2"/>
-      <c r="AC23" s="2"/>
-      <c r="AD23" s="2"/>
-      <c r="AE23" s="2"/>
-      <c r="AF23" s="2"/>
-      <c r="AG23" s="2"/>
-      <c r="AH23" s="2"/>
-      <c r="AI23" s="2"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="9"/>
+      <c r="AA23" s="9"/>
+      <c r="AB23" s="9"/>
+      <c r="AC23" s="9"/>
+      <c r="AD23" s="9"/>
+      <c r="AE23" s="9"/>
+      <c r="AF23" s="9"/>
+      <c r="AG23" s="9"/>
+      <c r="AH23" s="9"/>
+      <c r="AI23" s="9"/>
       <c r="AJ23" s="2"/>
       <c r="AK23" s="2"/>
       <c r="AL23" s="2"/>
@@ -2135,31 +2148,31 @@
       <c r="AN23" s="2"/>
       <c r="AO23" s="3"/>
     </row>
-    <row r="24" spans="1:41" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="65"/>
-      <c r="B24" s="66" t="s">
-        <v>28</v>
+    <row r="24" spans="1:41" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="55"/>
+      <c r="B24" s="64" t="s">
+        <v>24</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="61"/>
-      <c r="L24" s="61"/>
-      <c r="M24" s="61"/>
-      <c r="N24" s="61"/>
-      <c r="O24" s="61"/>
-      <c r="P24" s="61"/>
-      <c r="Q24" s="61"/>
-      <c r="R24" s="61"/>
-      <c r="S24" s="61"/>
-      <c r="T24" s="61"/>
-      <c r="U24" s="61"/>
-      <c r="V24" s="2"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="63"/>
+      <c r="M24" s="63"/>
+      <c r="N24" s="63"/>
+      <c r="O24" s="63"/>
+      <c r="P24" s="63"/>
+      <c r="Q24" s="63"/>
+      <c r="R24" s="63"/>
+      <c r="S24" s="63"/>
+      <c r="T24" s="63"/>
+      <c r="U24" s="63"/>
+      <c r="V24" s="63"/>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
@@ -2180,31 +2193,30 @@
       <c r="AN24" s="2"/>
       <c r="AO24" s="3"/>
     </row>
-    <row r="25" spans="1:41" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="65"/>
-      <c r="B25" s="66" t="s">
-        <v>28</v>
+    <row r="25" spans="1:41" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="55"/>
+      <c r="B25" s="42" t="s">
+        <v>26</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
+      <c r="G25" s="63"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="61"/>
-      <c r="L25" s="61"/>
-      <c r="M25" s="61"/>
-      <c r="N25" s="61"/>
-      <c r="O25" s="61"/>
-      <c r="P25" s="61"/>
-      <c r="Q25" s="61"/>
-      <c r="R25" s="61"/>
-      <c r="S25" s="61"/>
-      <c r="T25" s="61"/>
-      <c r="U25" s="61"/>
-      <c r="V25" s="2"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="M25" s="63"/>
+      <c r="N25" s="65"/>
+      <c r="O25" s="63"/>
+      <c r="P25" s="63"/>
+      <c r="Q25" s="63"/>
+      <c r="R25" s="63"/>
+      <c r="S25" s="63"/>
+      <c r="T25" s="63"/>
+      <c r="U25" s="63"/>
+      <c r="V25" s="63"/>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
       <c r="Y25" s="2"/>
@@ -2225,10 +2237,10 @@
       <c r="AN25" s="2"/>
       <c r="AO25" s="3"/>
     </row>
-    <row r="26" spans="1:41" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="65"/>
-      <c r="B26" s="66" t="s">
-        <v>28</v>
+    <row r="26" spans="1:41" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="55"/>
+      <c r="B26" s="42" t="s">
+        <v>27</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="2"/>
@@ -2238,17 +2250,17 @@
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
-      <c r="K26" s="61"/>
-      <c r="L26" s="61"/>
-      <c r="M26" s="61"/>
-      <c r="N26" s="61"/>
-      <c r="O26" s="61"/>
-      <c r="P26" s="61"/>
-      <c r="Q26" s="61"/>
-      <c r="R26" s="61"/>
-      <c r="S26" s="61"/>
-      <c r="T26" s="61"/>
-      <c r="U26" s="61"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="63"/>
+      <c r="O26" s="63"/>
+      <c r="P26" s="63"/>
+      <c r="Q26" s="63"/>
+      <c r="R26" s="63"/>
+      <c r="S26" s="63"/>
+      <c r="T26" s="63"/>
+      <c r="U26" s="63"/>
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
@@ -2270,9 +2282,9 @@
       <c r="AN26" s="2"/>
       <c r="AO26" s="3"/>
     </row>
-    <row r="27" spans="1:41" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="67"/>
-      <c r="B27" s="66" t="s">
+    <row r="27" spans="1:41" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="56"/>
+      <c r="B27" s="42" t="s">
         <v>28</v>
       </c>
       <c r="C27" s="7"/>
@@ -2283,17 +2295,17 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
-      <c r="K27" s="61"/>
-      <c r="L27" s="61"/>
-      <c r="M27" s="61"/>
-      <c r="N27" s="61"/>
-      <c r="O27" s="61"/>
-      <c r="P27" s="61"/>
-      <c r="Q27" s="61"/>
-      <c r="R27" s="61"/>
-      <c r="S27" s="61"/>
-      <c r="T27" s="61"/>
-      <c r="U27" s="61"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="63"/>
+      <c r="Q27" s="63"/>
+      <c r="R27" s="63"/>
+      <c r="S27" s="63"/>
+      <c r="T27" s="63"/>
+      <c r="U27" s="63"/>
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
@@ -2315,11 +2327,11 @@
       <c r="AN27" s="2"/>
       <c r="AO27" s="3"/>
     </row>
-    <row r="28" spans="1:41" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="23"/>
+    <row r="28" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="67"/>
       <c r="C28" s="7"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -2328,17 +2340,17 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="9"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
       <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="9"/>
-      <c r="U28" s="9"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
@@ -2360,37 +2372,36 @@
       <c r="AN28" s="2"/>
       <c r="AO28" s="3"/>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A29" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" s="23"/>
+    <row r="29" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="67"/>
       <c r="C29" s="7"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="63"/>
+      <c r="N29" s="63"/>
+      <c r="O29" s="63"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
-      <c r="AB29" s="2"/>
       <c r="AC29" s="2"/>
       <c r="AD29" s="2"/>
       <c r="AE29" s="2"/>
@@ -2405,30 +2416,30 @@
       <c r="AN29" s="2"/>
       <c r="AO29" s="3"/>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A30" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="23"/>
+    <row r="30" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="67"/>
       <c r="C30" s="7"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-      <c r="U30" s="2"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="63"/>
+      <c r="L30" s="63"/>
+      <c r="M30" s="63"/>
+      <c r="N30" s="63"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="9"/>
       <c r="V30" s="9"/>
       <c r="W30" s="9"/>
       <c r="X30" s="9"/>
@@ -2450,44 +2461,46 @@
       <c r="AN30" s="2"/>
       <c r="AO30" s="3"/>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A31" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="23"/>
+    <row r="31" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="41" t="s">
+        <v>30</v>
+      </c>
       <c r="C31" s="7"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
-      <c r="U31" s="2"/>
-      <c r="V31" s="2"/>
-      <c r="W31" s="2"/>
-      <c r="X31" s="2"/>
-      <c r="Y31" s="2"/>
-      <c r="Z31" s="2"/>
-      <c r="AA31" s="2"/>
-      <c r="AB31" s="9"/>
-      <c r="AC31" s="9"/>
-      <c r="AD31" s="9"/>
-      <c r="AE31" s="9"/>
-      <c r="AF31" s="9"/>
-      <c r="AG31" s="9"/>
-      <c r="AH31" s="9"/>
-      <c r="AI31" s="9"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="63"/>
+      <c r="N31" s="63"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="9"/>
+      <c r="W31" s="9"/>
+      <c r="X31" s="9"/>
+      <c r="Y31" s="9"/>
+      <c r="Z31" s="9"/>
+      <c r="AA31" s="9"/>
+      <c r="AB31" s="2"/>
+      <c r="AC31" s="2"/>
+      <c r="AD31" s="2"/>
+      <c r="AE31" s="2"/>
+      <c r="AF31" s="2"/>
+      <c r="AG31" s="2"/>
+      <c r="AH31" s="2"/>
+      <c r="AI31" s="2"/>
       <c r="AJ31" s="2"/>
       <c r="AK31" s="2"/>
       <c r="AL31" s="2"/>
@@ -2495,31 +2508,31 @@
       <c r="AN31" s="2"/>
       <c r="AO31" s="3"/>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A32" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="23"/>
+    <row r="32" spans="1:41" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="55"/>
+      <c r="B32" s="64" t="s">
+        <v>31</v>
+      </c>
       <c r="C32" s="7"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
-      <c r="U32" s="2"/>
-      <c r="V32" s="2"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="63"/>
+      <c r="M32" s="63"/>
+      <c r="N32" s="63"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="40"/>
+      <c r="S32" s="40"/>
+      <c r="T32" s="40"/>
+      <c r="U32" s="63"/>
+      <c r="V32" s="63"/>
       <c r="W32" s="2"/>
       <c r="X32" s="2"/>
       <c r="Y32" s="2"/>
@@ -2533,76 +2546,214 @@
       <c r="AG32" s="2"/>
       <c r="AH32" s="2"/>
       <c r="AI32" s="2"/>
-      <c r="AJ32" s="9"/>
-      <c r="AK32" s="9"/>
-      <c r="AL32" s="9"/>
-      <c r="AM32" s="9"/>
+      <c r="AJ32" s="2"/>
+      <c r="AK32" s="2"/>
+      <c r="AL32" s="2"/>
+      <c r="AM32" s="2"/>
       <c r="AN32" s="2"/>
       <c r="AO32" s="3"/>
     </row>
-    <row r="33" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B33" s="25"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="4"/>
-      <c r="U33" s="4"/>
-      <c r="V33" s="4"/>
-      <c r="W33" s="4"/>
-      <c r="X33" s="4"/>
-      <c r="Y33" s="4"/>
-      <c r="Z33" s="4"/>
-      <c r="AA33" s="4"/>
-      <c r="AB33" s="4"/>
-      <c r="AC33" s="4"/>
-      <c r="AD33" s="4"/>
-      <c r="AE33" s="4"/>
-      <c r="AF33" s="4"/>
-      <c r="AG33" s="4"/>
-      <c r="AH33" s="4"/>
-      <c r="AI33" s="4"/>
-      <c r="AJ33" s="4"/>
-      <c r="AK33" s="4"/>
-      <c r="AL33" s="4"/>
-      <c r="AM33" s="4"/>
-      <c r="AN33" s="4"/>
-      <c r="AO33" s="11"/>
-    </row>
+    <row r="33" spans="1:41" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="55"/>
+      <c r="B33" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="65"/>
+      <c r="M33" s="63"/>
+      <c r="N33" s="65"/>
+      <c r="O33" s="63"/>
+      <c r="P33" s="63"/>
+      <c r="Q33" s="63"/>
+      <c r="R33" s="40"/>
+      <c r="S33" s="40"/>
+      <c r="T33" s="40"/>
+      <c r="U33" s="40"/>
+      <c r="V33" s="40"/>
+      <c r="W33" s="40"/>
+      <c r="X33" s="40"/>
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="2"/>
+      <c r="AA33" s="2"/>
+      <c r="AB33" s="2"/>
+      <c r="AC33" s="2"/>
+      <c r="AD33" s="2"/>
+      <c r="AE33" s="2"/>
+      <c r="AF33" s="2"/>
+      <c r="AG33" s="2"/>
+      <c r="AH33" s="2"/>
+      <c r="AI33" s="2"/>
+      <c r="AJ33" s="2"/>
+      <c r="AK33" s="2"/>
+      <c r="AL33" s="2"/>
+      <c r="AM33" s="2"/>
+      <c r="AN33" s="2"/>
+      <c r="AO33" s="3"/>
+    </row>
+    <row r="34" spans="1:41" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="55"/>
+      <c r="B34" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="63"/>
+      <c r="N34" s="63"/>
+      <c r="O34" s="63"/>
+      <c r="P34" s="63"/>
+      <c r="Q34" s="63"/>
+      <c r="R34" s="63"/>
+      <c r="S34" s="63"/>
+      <c r="T34" s="40"/>
+      <c r="U34" s="40"/>
+      <c r="V34" s="40"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="2"/>
+      <c r="AA34" s="2"/>
+      <c r="AB34" s="2"/>
+      <c r="AC34" s="2"/>
+      <c r="AD34" s="2"/>
+      <c r="AE34" s="2"/>
+      <c r="AF34" s="2"/>
+      <c r="AG34" s="2"/>
+      <c r="AH34" s="2"/>
+      <c r="AI34" s="2"/>
+      <c r="AJ34" s="2"/>
+      <c r="AK34" s="2"/>
+      <c r="AL34" s="2"/>
+      <c r="AM34" s="2"/>
+      <c r="AN34" s="2"/>
+      <c r="AO34" s="3"/>
+    </row>
+    <row r="35" spans="1:41" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="56"/>
+      <c r="B35" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="63"/>
+      <c r="J35" s="63"/>
+      <c r="K35" s="63"/>
+      <c r="L35" s="63"/>
+      <c r="M35" s="63"/>
+      <c r="N35" s="63"/>
+      <c r="O35" s="63"/>
+      <c r="P35" s="63"/>
+      <c r="Q35" s="63"/>
+      <c r="R35" s="63"/>
+      <c r="S35" s="63"/>
+      <c r="T35" s="63"/>
+      <c r="U35" s="40"/>
+      <c r="V35" s="40"/>
+      <c r="W35" s="40"/>
+      <c r="X35" s="40"/>
+      <c r="Y35" s="40"/>
+      <c r="Z35" s="40"/>
+      <c r="AA35" s="40"/>
+      <c r="AB35" s="40"/>
+      <c r="AC35" s="40"/>
+      <c r="AD35" s="40"/>
+      <c r="AE35" s="40"/>
+      <c r="AF35" s="40"/>
+      <c r="AG35" s="40"/>
+      <c r="AH35" s="40"/>
+      <c r="AI35" s="40"/>
+      <c r="AJ35" s="2"/>
+      <c r="AK35" s="2"/>
+      <c r="AL35" s="2"/>
+      <c r="AM35" s="2"/>
+      <c r="AN35" s="2"/>
+      <c r="AO35" s="3"/>
+    </row>
+    <row r="36" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="47"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4"/>
+      <c r="AA36" s="4"/>
+      <c r="AB36" s="4"/>
+      <c r="AC36" s="4"/>
+      <c r="AD36" s="4"/>
+      <c r="AE36" s="4"/>
+      <c r="AF36" s="4"/>
+      <c r="AG36" s="4"/>
+      <c r="AH36" s="4"/>
+      <c r="AI36" s="4"/>
+      <c r="AJ36" s="4"/>
+      <c r="AK36" s="4"/>
+      <c r="AL36" s="4"/>
+      <c r="AM36" s="4"/>
+      <c r="AN36" s="4"/>
+      <c r="AO36" s="11"/>
+    </row>
+    <row r="37" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A28:B28"/>
+  <mergeCells count="15">
     <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A14:A17"/>
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="A23:A27"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A30:B30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
